--- a/Hardware/PCB_BOM.xlsx
+++ b/Hardware/PCB_BOM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="10480" activeTab="2"/>
+    <workbookView windowWidth="25600" windowHeight="10480"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="253">
   <si>
     <t>No.</t>
   </si>
@@ -150,21 +150,27 @@
     <t>C13,C14</t>
   </si>
   <si>
+    <t>12pF</t>
+  </si>
+  <si>
     <t>CC0603JRNPO9BN200</t>
   </si>
   <si>
     <t>8</t>
   </si>
   <si>
+    <t>0.1uF 1206</t>
+  </si>
+  <si>
+    <t>C16</t>
+  </si>
+  <si>
+    <t>CAP-SMD_L3.2-W1.6-RD-1</t>
+  </si>
+  <si>
     <t>0.1uF</t>
   </si>
   <si>
-    <t>C16</t>
-  </si>
-  <si>
-    <t>CAP-SMD_L3.2-W1.6-RD-1</t>
-  </si>
-  <si>
     <t>CA45A-A-25V-2.2UF-K</t>
   </si>
   <si>
@@ -541,6 +547,9 @@
   </si>
   <si>
     <t>OSC-SMD_4P-L3.2-W2.5-BL</t>
+  </si>
+  <si>
+    <t>8MHz 12pf</t>
   </si>
   <si>
     <t>X32258MOB4SI</t>
@@ -793,7 +802,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -803,26 +812,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1297,155 +1286,150 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1833,1062 +1817,1060 @@
   <sheetPr/>
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="4.54545454545455" style="10" customWidth="1"/>
-    <col min="2" max="2" width="9.54545454545454" style="10" customWidth="1"/>
-    <col min="3" max="3" width="17.3636363636364" style="10" customWidth="1"/>
-    <col min="4" max="4" width="45.5454545454545" style="10" customWidth="1"/>
-    <col min="5" max="5" width="39.9090909090909" style="10" customWidth="1"/>
-    <col min="6" max="6" width="14" style="10" customWidth="1"/>
-    <col min="7" max="7" width="21.9090909090909" style="10" customWidth="1"/>
-    <col min="8" max="8" width="25.2727272727273" style="10" customWidth="1"/>
-    <col min="9" max="9" width="15.1818181818182" style="10" customWidth="1"/>
-    <col min="10" max="10" width="9.54545454545454" style="10" customWidth="1"/>
+    <col min="1" max="1" width="4.54545454545455" style="8" customWidth="1"/>
+    <col min="2" max="2" width="9.54545454545454" style="8" customWidth="1"/>
+    <col min="3" max="3" width="17.3636363636364" style="8" customWidth="1"/>
+    <col min="4" max="4" width="45.5454545454545" style="8" customWidth="1"/>
+    <col min="5" max="5" width="39.9090909090909" style="8" customWidth="1"/>
+    <col min="6" max="6" width="14" style="8" customWidth="1"/>
+    <col min="7" max="7" width="21.9090909090909" style="8" customWidth="1"/>
+    <col min="8" max="8" width="25.2727272727273" style="8" customWidth="1"/>
+    <col min="9" max="9" width="15.1818181818182" style="8" customWidth="1"/>
+    <col min="10" max="10" width="9.54545454545454" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-    </row>
-    <row r="2" s="9" customFormat="1" spans="1:10">
-      <c r="A2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="11" t="s">
+    </row>
+    <row r="2" s="5" customFormat="1" spans="1:10">
+      <c r="A2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-    </row>
-    <row r="3" s="9" customFormat="1" spans="1:10">
-      <c r="A3" s="11" t="s">
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" s="5" customFormat="1" spans="1:10">
+      <c r="A3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-    </row>
-    <row r="4" s="9" customFormat="1" spans="1:10">
-      <c r="A4" s="11" t="s">
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" s="5" customFormat="1" spans="1:10">
+      <c r="A4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-    </row>
-    <row r="5" s="9" customFormat="1" spans="1:10">
-      <c r="A5" s="11" t="s">
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" s="5" customFormat="1" spans="1:10">
+      <c r="A5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="11" t="s">
+      <c r="B5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-    </row>
-    <row r="6" s="9" customFormat="1" spans="1:10">
-      <c r="A6" s="11" t="s">
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" s="5" customFormat="1" spans="1:10">
+      <c r="A6" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-    </row>
-    <row r="7" s="9" customFormat="1" spans="1:10">
-      <c r="A7" s="11" t="s">
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" s="5" customFormat="1" spans="1:10">
+      <c r="A7" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-    </row>
-    <row r="8" s="9" customFormat="1" spans="1:10">
-      <c r="A8" s="11" t="s">
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" s="5" customFormat="1" spans="1:10">
+      <c r="A8" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="11" t="s">
+      <c r="F8" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="G8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-    </row>
-    <row r="9" s="9" customFormat="1" spans="1:10">
-      <c r="A9" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="11" t="s">
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" s="5" customFormat="1" spans="1:10">
+      <c r="A9" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="B9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="D9" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="11" t="s">
+      <c r="E9" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="F9" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-    </row>
-    <row r="10" s="9" customFormat="1" spans="1:10">
-      <c r="A10" s="11" t="s">
+      <c r="G9" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="11" t="s">
+      <c r="H9" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" s="5" customFormat="1" spans="1:10">
+      <c r="A10" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="B10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10" s="11" t="s">
+      <c r="F10" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-    </row>
-    <row r="11" s="9" customFormat="1" spans="1:10">
-      <c r="A11" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="11" t="s">
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" s="5" customFormat="1" spans="1:10">
+      <c r="A11" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="B11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="11" t="s">
+      <c r="F11" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" s="9" customFormat="1" spans="1:10">
-      <c r="A12" s="11" t="s">
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" s="5" customFormat="1" spans="1:10">
+      <c r="A12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="11" t="s">
+      <c r="B12" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="H12" s="11" t="s">
+      <c r="G12" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" s="9" customFormat="1" spans="1:10">
-      <c r="A13" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="11" t="s">
+      <c r="H12" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" s="5" customFormat="1" spans="1:10">
+      <c r="A13" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="B13" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="D13" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" s="9" customFormat="1" spans="1:10">
-      <c r="A14" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="11" t="s">
+      <c r="G13" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" s="5" customFormat="1" spans="1:10">
+      <c r="A14" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="B14" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="D14" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" s="5" customFormat="1" spans="1:10">
+      <c r="A15" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+    </row>
+    <row r="16" s="5" customFormat="1" spans="1:10">
+      <c r="A16" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+    </row>
+    <row r="17" s="5" customFormat="1" spans="1:10">
+      <c r="A17" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+    </row>
+    <row r="18" s="5" customFormat="1" spans="1:10">
+      <c r="A18" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+    </row>
+    <row r="19" s="5" customFormat="1" spans="1:10">
+      <c r="A19" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" s="5" customFormat="1" spans="1:10">
+      <c r="A20" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+    </row>
+    <row r="21" s="5" customFormat="1" spans="1:10">
+      <c r="A21" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+    </row>
+    <row r="22" s="5" customFormat="1" spans="1:10">
+      <c r="A22" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+    </row>
+    <row r="23" s="5" customFormat="1" spans="1:10">
+      <c r="A23" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+    </row>
+    <row r="24" s="5" customFormat="1" spans="1:10">
+      <c r="A24" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+    </row>
+    <row r="25" s="5" customFormat="1" spans="1:10">
+      <c r="A25" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+    </row>
+    <row r="26" s="5" customFormat="1" spans="1:10">
+      <c r="A26" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+    </row>
+    <row r="27" s="5" customFormat="1" spans="1:10">
+      <c r="A27" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+    </row>
+    <row r="28" s="5" customFormat="1" spans="1:10">
+      <c r="A28" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+    </row>
+    <row r="29" s="5" customFormat="1" spans="1:10">
+      <c r="A29" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+    </row>
+    <row r="30" s="5" customFormat="1" spans="1:10">
+      <c r="A30" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+    </row>
+    <row r="31" s="5" customFormat="1" spans="1:10">
+      <c r="A31" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+    </row>
+    <row r="32" s="5" customFormat="1" spans="1:10">
+      <c r="A32" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+    </row>
+    <row r="33" s="5" customFormat="1" spans="1:10">
+      <c r="A33" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+    </row>
+    <row r="34" s="5" customFormat="1" spans="1:10">
+      <c r="A34" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+    </row>
+    <row r="35" s="5" customFormat="1" spans="1:10">
+      <c r="A35" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="H35" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="H14" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" s="9" customFormat="1" spans="1:10">
-      <c r="A15" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-    </row>
-    <row r="16" s="9" customFormat="1" spans="1:10">
-      <c r="A16" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" s="11" t="s">
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+    </row>
+    <row r="36" s="5" customFormat="1" spans="1:10">
+      <c r="A36" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="F36" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-    </row>
-    <row r="17" s="9" customFormat="1" spans="1:10">
-      <c r="A17" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-    </row>
-    <row r="18" s="9" customFormat="1" spans="1:10">
-      <c r="A18" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-    </row>
-    <row r="19" s="9" customFormat="1" spans="1:10">
-      <c r="A19" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-    </row>
-    <row r="20" s="9" customFormat="1" spans="1:10">
-      <c r="A20" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-    </row>
-    <row r="21" s="9" customFormat="1" spans="1:10">
-      <c r="A21" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-    </row>
-    <row r="22" s="9" customFormat="1" spans="1:10">
-      <c r="A22" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-    </row>
-    <row r="23" s="9" customFormat="1" spans="1:10">
-      <c r="A23" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-    </row>
-    <row r="24" s="9" customFormat="1" spans="1:10">
-      <c r="A24" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-    </row>
-    <row r="25" s="9" customFormat="1" spans="1:10">
-      <c r="A25" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-    </row>
-    <row r="26" s="9" customFormat="1" spans="1:10">
-      <c r="A26" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-    </row>
-    <row r="27" s="9" customFormat="1" spans="1:10">
-      <c r="A27" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="H27" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-    </row>
-    <row r="28" s="9" customFormat="1" spans="1:10">
-      <c r="A28" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="H28" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-    </row>
-    <row r="29" s="9" customFormat="1" spans="1:10">
-      <c r="A29" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="H29" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-    </row>
-    <row r="30" s="9" customFormat="1" spans="1:10">
-      <c r="A30" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-    </row>
-    <row r="31" s="9" customFormat="1" spans="1:10">
-      <c r="A31" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="H31" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-    </row>
-    <row r="32" s="9" customFormat="1" spans="1:10">
-      <c r="A32" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="H32" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-    </row>
-    <row r="33" s="9" customFormat="1" spans="1:10">
-      <c r="A33" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="H33" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-    </row>
-    <row r="34" s="9" customFormat="1" spans="1:10">
-      <c r="A34" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="H34" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-    </row>
-    <row r="35" s="9" customFormat="1" spans="1:10">
-      <c r="A35" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="H35" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-    </row>
-    <row r="36" s="9" customFormat="1" spans="1:10">
-      <c r="A36" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="E36" s="11" t="s">
+      <c r="G36" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="F36" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="H36" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-    </row>
-    <row r="37" s="9" customFormat="1" spans="1:10">
-      <c r="A37" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="11" t="s">
+      <c r="H36" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+    </row>
+    <row r="37" s="5" customFormat="1" spans="1:10">
+      <c r="A37" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="B37" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="F37" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="G37" s="11" t="s">
+      <c r="D37" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="H37" s="11" t="s">
+      <c r="E37" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
+      <c r="F37" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="8" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2956,19 +2938,19 @@
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>24</v>
@@ -2982,22 +2964,22 @@
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3008,22 +2990,22 @@
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3034,22 +3016,22 @@
         <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3060,22 +3042,22 @@
         <v>25</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3086,22 +3068,22 @@
         <v>8</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3112,22 +3094,22 @@
         <v>8</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -3141,7 +3123,7 @@
   <sheetPr/>
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
@@ -3184,10 +3166,10 @@
       <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="7"/>
-    </row>
-    <row r="2" s="6" customFormat="1" spans="1:10">
+      <c r="I1" s="4"/>
+      <c r="J1" s="6"/>
+    </row>
+    <row r="2" s="5" customFormat="1" spans="1:10">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -3195,27 +3177,27 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="8"/>
-    </row>
-    <row r="3" s="6" customFormat="1" spans="1:10">
+        <v>194</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" s="5" customFormat="1" spans="1:10">
       <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
@@ -3223,27 +3205,27 @@
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" s="6" customFormat="1" spans="1:10">
+        <v>194</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" s="5" customFormat="1" spans="1:10">
       <c r="A4" s="4" t="s">
         <v>19</v>
       </c>
@@ -3251,27 +3233,27 @@
         <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="8"/>
-    </row>
-    <row r="5" s="6" customFormat="1" spans="1:10">
+        <v>77</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" s="5" customFormat="1" spans="1:10">
       <c r="A5" s="4" t="s">
         <v>25</v>
       </c>
@@ -3279,27 +3261,27 @@
         <v>8</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="8"/>
-    </row>
-    <row r="6" s="6" customFormat="1" spans="1:10">
+      <c r="I5" s="4"/>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" s="5" customFormat="1" spans="1:10">
       <c r="A6" s="4" t="s">
         <v>29</v>
       </c>
@@ -3310,7 +3292,7 @@
         <v>20</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>22</v>
@@ -3319,15 +3301,15 @@
         <v>20</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="8"/>
-    </row>
-    <row r="7" s="6" customFormat="1" spans="1:10">
+        <v>194</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" s="5" customFormat="1" spans="1:10">
       <c r="A7" s="4" t="s">
         <v>32</v>
       </c>
@@ -3335,25 +3317,25 @@
         <v>8</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="8"/>
+        <v>77</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="7"/>
     </row>
     <row r="8" s="3" customFormat="1" spans="1:10">
       <c r="A8" s="4" t="s">
@@ -3366,7 +3348,7 @@
         <v>34</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>22</v>
@@ -3375,97 +3357,97 @@
         <v>34</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" s="6" customFormat="1" spans="1:10">
+        <v>194</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" s="5" customFormat="1" spans="1:10">
       <c r="A9" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="8"/>
-    </row>
-    <row r="10" s="6" customFormat="1" spans="1:10">
+        <v>209</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" s="5" customFormat="1" spans="1:10">
       <c r="A10" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="8"/>
-    </row>
-    <row r="11" s="6" customFormat="1" spans="1:10">
+        <v>212</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" s="5" customFormat="1" spans="1:10">
       <c r="A11" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="8"/>
+        <v>216</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="7"/>
     </row>
     <row r="12" s="3" customFormat="1" spans="1:10">
       <c r="A12" s="4" t="s">
@@ -3475,249 +3457,249 @@
         <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
+        <v>93</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
     </row>
     <row r="13" s="3" customFormat="1" spans="1:10">
       <c r="A13" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H13" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" s="5" customFormat="1" spans="1:10">
+      <c r="A14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-    </row>
-    <row r="14" s="6" customFormat="1" spans="1:10">
-      <c r="A14" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>89</v>
-      </c>
       <c r="F14" s="4" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="8"/>
+        <v>93</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="7"/>
     </row>
     <row r="15" s="3" customFormat="1" spans="1:10">
       <c r="A15" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
+        <v>93</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
     </row>
     <row r="16" s="3" customFormat="1" spans="1:10">
       <c r="A16" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
+        <v>93</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
     </row>
     <row r="17" s="3" customFormat="1" spans="1:10">
       <c r="A17" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
+        <v>228</v>
+      </c>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
     </row>
     <row r="18" s="3" customFormat="1" spans="1:10">
       <c r="A18" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
+        <v>228</v>
+      </c>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
     </row>
     <row r="19" s="3" customFormat="1" spans="1:10">
       <c r="A19" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
+        <v>235</v>
+      </c>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
     </row>
     <row r="20" s="3" customFormat="1" spans="1:10">
       <c r="A20" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>230</v>
-      </c>
       <c r="F20" s="4" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
+        <v>239</v>
+      </c>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="3"/>
@@ -3784,8 +3766,8 @@
       <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
     </row>
     <row r="2" s="3" customFormat="1" spans="1:10">
       <c r="A2" s="4" t="s">
@@ -3795,25 +3777,25 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
+        <v>194</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:10">
       <c r="A3" s="4" t="s">
@@ -3823,25 +3805,25 @@
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
+        <v>194</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
     </row>
     <row r="4" s="3" customFormat="1" spans="1:10">
       <c r="A4" s="4" t="s">
@@ -3851,25 +3833,25 @@
         <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
+        <v>77</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
     </row>
     <row r="5" s="3" customFormat="1" spans="1:10">
       <c r="A5" s="4" t="s">
@@ -3879,25 +3861,25 @@
         <v>8</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
     </row>
     <row r="6" s="3" customFormat="1" spans="1:10">
       <c r="A6" s="4" t="s">
@@ -3910,7 +3892,7 @@
         <v>20</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>22</v>
@@ -3919,13 +3901,13 @@
         <v>20</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
+        <v>194</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
     </row>
     <row r="7" s="3" customFormat="1" spans="1:10">
       <c r="A7" s="4" t="s">
@@ -3935,25 +3917,25 @@
         <v>8</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
+        <v>77</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
     </row>
     <row r="8" s="3" customFormat="1" spans="1:10">
       <c r="A8" s="4" t="s">
@@ -3966,7 +3948,7 @@
         <v>34</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>22</v>
@@ -3975,97 +3957,97 @@
         <v>34</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
+        <v>194</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
     </row>
     <row r="9" s="3" customFormat="1" spans="1:10">
       <c r="A9" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
+        <v>209</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
     </row>
     <row r="10" s="3" customFormat="1" spans="1:10">
       <c r="A10" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
+        <v>212</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
     </row>
     <row r="11" s="3" customFormat="1" spans="1:10">
       <c r="A11" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
+        <v>216</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
     </row>
     <row r="12" s="3" customFormat="1" spans="1:10">
       <c r="A12" s="4" t="s">
@@ -4075,249 +4057,249 @@
         <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
+        <v>93</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
     </row>
     <row r="13" s="3" customFormat="1" spans="1:10">
       <c r="A13" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
+        <v>93</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
     </row>
     <row r="14" s="3" customFormat="1" spans="1:10">
       <c r="A14" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
+        <v>93</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
     </row>
     <row r="15" s="3" customFormat="1" spans="1:10">
       <c r="A15" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
+        <v>93</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
     </row>
     <row r="16" s="3" customFormat="1" spans="1:10">
       <c r="A16" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
+        <v>93</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
     </row>
     <row r="17" s="3" customFormat="1" spans="1:10">
       <c r="A17" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
+        <v>228</v>
+      </c>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
     </row>
     <row r="18" s="3" customFormat="1" spans="1:10">
       <c r="A18" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
+        <v>228</v>
+      </c>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
     </row>
     <row r="19" s="3" customFormat="1" spans="1:10">
       <c r="A19" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
+        <v>235</v>
+      </c>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
     </row>
     <row r="20" s="3" customFormat="1" spans="1:10">
       <c r="A20" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
+        <v>239</v>
+      </c>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4347,10 +4329,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4361,10 +4343,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4375,10 +4357,10 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
